--- a/相关资料/GO_DB.xlsx
+++ b/相关资料/GO_DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="-18768" windowWidth="13740" windowHeight="11760" tabRatio="930" firstSheet="5" activeTab="15"/>
+    <workbookView xWindow="4920" yWindow="-18768" windowWidth="13740" windowHeight="11760" tabRatio="930" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="分享" sheetId="113" r:id="rId1"/>
@@ -343,6 +343,22 @@
     <author>xzbao</author>
   </authors>
   <commentList>
+    <comment ref="P34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>-1：PK
+0 ：not PK</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E35" authorId="0" shapeId="0">
       <text>
         <r>
@@ -356,22 +372,6 @@
           </rPr>
           <t>0 ：Not null
 -1：null ok</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P35" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>-1：PK
-0 ：not PK</t>
         </r>
       </text>
     </comment>
@@ -632,7 +632,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="206">
   <si>
     <t>类型</t>
   </si>
@@ -877,62 +877,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>product</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换商品表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log_user_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分使用日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>draw_goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽奖商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionnaire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionnaire_topic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷题目关联表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答案表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表前缀www_</t>
   </si>
   <si>
@@ -940,17 +884,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wxapp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信小程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>用户id</t>
   </si>
   <si>
@@ -995,10 +928,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1027,10 +956,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>社团id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1191,10 +1116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> local</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">longitude </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1215,10 +1136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1235,10 +1152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">longitude </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1255,18 +1168,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>活动id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> act_like</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1295,15 +1200,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>活动id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> participate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户id</t>
+    <t>picture1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享图片1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享图片2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享图片3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> interest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴趣标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> act_like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动点赞表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> act_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动评论表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> share_like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享点赞表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> share_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享评论表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1311,15 +1372,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>活动id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> participate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> share</t>
+    <t>act_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1327,47 +1380,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>picture1</t>
+    <t>cor_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>picture2</t>
+    <t>cor_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>picture3</t>
+    <t>act_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享图片1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享图片2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享图片3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
+    <t>act_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8420,7 +8445,7 @@
       <selection activeCell="D33" sqref="D33"/>
       <selection pane="topRight" activeCell="D33" sqref="D33"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8440,7 +8465,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>63</v>
@@ -8494,7 +8519,7 @@
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -8512,12 +8537,12 @@
       <c r="I3" s="6"/>
       <c r="L3" s="19" t="str">
         <f t="shared" ref="L3:L30" si="0">IF($A3&lt;&gt;"",  "  `"&amp; $A3 &amp;"` "&amp; $B3 &amp; IF($C3&lt;&gt;"", "("&amp; $C3 &amp; IF(AND($D3&lt;&gt;"",$D3&lt;&gt;0), ","&amp; $D3, "") &amp;")", "") &amp; IF($E3="●"," NOT NULL","") &amp; IF($F3&lt;&gt;""," DEFAULT '"&amp; $F3 &amp;"'","") &amp;" COMMENT '【"&amp; $H3 &amp;"】"&amp; $I3 &amp;"',",  "")</f>
-        <v xml:space="preserve">  `id` varchar(40) NOT NULL COMMENT '【】',</v>
+        <v xml:space="preserve">  `share_id` varchar(40) NOT NULL COMMENT '【】',</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -8532,7 +8557,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="I4" s="6"/>
       <c r="L4" s="19" t="str">
@@ -8542,7 +8567,7 @@
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -8555,7 +8580,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="I5" s="6"/>
       <c r="L5" s="19" t="str">
@@ -8565,7 +8590,7 @@
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
@@ -8578,7 +8603,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="I6" s="6"/>
       <c r="L6" s="19" t="str">
@@ -8588,7 +8613,7 @@
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -8601,7 +8626,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="I7" s="6"/>
       <c r="L7" s="19" t="str">
@@ -8611,7 +8636,7 @@
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -8624,7 +8649,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="I8" s="6"/>
       <c r="L8" s="19" t="str">
@@ -8634,7 +8659,7 @@
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>32</v>
@@ -8645,7 +8670,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="I9" s="6"/>
       <c r="L9" s="19" t="str">
@@ -8971,7 +8996,7 @@
     <row r="31" spans="1:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L31" s="20" t="str">
         <f>"  PRIMARY KEY (`"&amp; $A$3 &amp;"`)"</f>
-        <v xml:space="preserve">  PRIMARY KEY (`id`)</v>
+        <v xml:space="preserve">  PRIMARY KEY (`share_id`)</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9090,7 +9115,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>63</v>
@@ -9144,7 +9169,7 @@
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -9159,17 +9184,17 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="I3" s="6"/>
       <c r="L3" s="19" t="str">
         <f t="shared" ref="L3:L30" si="0">IF($A3&lt;&gt;"",  "  `"&amp; $A3 &amp;"` "&amp; $B3 &amp; IF($C3&lt;&gt;"", "("&amp; $C3 &amp; IF(AND($D3&lt;&gt;"",$D3&lt;&gt;0), ","&amp; $D3, "") &amp;")", "") &amp; IF($E3="●"," NOT NULL","") &amp; IF($F3&lt;&gt;""," DEFAULT '"&amp; $F3 &amp;"'","") &amp;" COMMENT '【"&amp; $H3 &amp;"】"&amp; $I3 &amp;"',",  "")</f>
-        <v xml:space="preserve">  `id` varchar(40) NOT NULL COMMENT '【用户id】',</v>
+        <v xml:space="preserve">  `user_id` varchar(40) NOT NULL COMMENT '【用户id】',</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -9184,7 +9209,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="I4" s="6"/>
       <c r="L4" s="19" t="str">
@@ -9194,7 +9219,7 @@
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -9209,7 +9234,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="I5" s="6"/>
       <c r="L5" s="19" t="str">
@@ -9219,7 +9244,7 @@
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
@@ -9232,7 +9257,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I6" s="6"/>
       <c r="L6" s="19" t="str">
@@ -9242,7 +9267,7 @@
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -9255,7 +9280,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="I7" s="6"/>
       <c r="L7" s="19" t="str">
@@ -9265,10 +9290,10 @@
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -9276,7 +9301,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="I8" s="6"/>
       <c r="L8" s="19" t="str">
@@ -9286,7 +9311,7 @@
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -9301,7 +9326,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I9" s="6"/>
       <c r="L9" s="19" t="str">
@@ -9311,7 +9336,7 @@
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
@@ -9324,7 +9349,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I10" s="6"/>
       <c r="L10" s="19" t="str">
@@ -9334,7 +9359,7 @@
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>32</v>
@@ -9345,7 +9370,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="I11" s="6"/>
       <c r="L11" s="19" t="str">
@@ -9641,7 +9666,7 @@
     <row r="31" spans="1:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L31" s="20" t="str">
         <f>"  PRIMARY KEY (`"&amp; $A$3 &amp;"`)"</f>
-        <v xml:space="preserve">  PRIMARY KEY (`id`)</v>
+        <v xml:space="preserve">  PRIMARY KEY (`user_id`)</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9740,7 +9765,7 @@
       <selection activeCell="D33" sqref="D33"/>
       <selection pane="topRight" activeCell="D33" sqref="D33"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9760,7 +9785,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>63</v>
@@ -9814,7 +9839,7 @@
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -9829,17 +9854,17 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="I3" s="6"/>
       <c r="L3" s="19" t="str">
         <f t="shared" ref="L3:L30" si="0">IF($A3&lt;&gt;"",  "  `"&amp; $A3 &amp;"` "&amp; $B3 &amp; IF($C3&lt;&gt;"", "("&amp; $C3 &amp; IF(AND($D3&lt;&gt;"",$D3&lt;&gt;0), ","&amp; $D3, "") &amp;")", "") &amp; IF($E3="●"," NOT NULL","") &amp; IF($F3&lt;&gt;""," DEFAULT '"&amp; $F3 &amp;"'","") &amp;" COMMENT '【"&amp; $H3 &amp;"】"&amp; $I3 &amp;"',",  "")</f>
-        <v xml:space="preserve">  `id` varchar(40) NOT NULL COMMENT '【用户id】',</v>
+        <v xml:space="preserve">  `user_id` varchar(40) NOT NULL COMMENT '【用户id】',</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -9852,7 +9877,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="I4" s="6"/>
       <c r="L4" s="19" t="str">
@@ -10253,7 +10278,7 @@
     <row r="31" spans="1:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L31" s="20" t="str">
         <f>"  PRIMARY KEY (`"&amp; $A$3 &amp;"`)"</f>
-        <v xml:space="preserve">  PRIMARY KEY (`id`)</v>
+        <v xml:space="preserve">  PRIMARY KEY (`user_id`)</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10352,7 +10377,7 @@
       <selection activeCell="D33" sqref="D33"/>
       <selection pane="topRight" activeCell="D33" sqref="D33"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10372,7 +10397,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>63</v>
@@ -10426,7 +10451,7 @@
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -10441,10 +10466,10 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="L3" s="19" t="str">
         <f t="shared" ref="L3:L30" si="0">IF($A3&lt;&gt;"",  "  `"&amp; $A3 &amp;"` "&amp; $B3 &amp; IF($C3&lt;&gt;"", "("&amp; $C3 &amp; IF(AND($D3&lt;&gt;"",$D3&lt;&gt;0), ","&amp; $D3, "") &amp;")", "") &amp; IF($E3="●"," NOT NULL","") &amp; IF($F3&lt;&gt;""," DEFAULT '"&amp; $F3 &amp;"'","") &amp;" COMMENT '【"&amp; $H3 &amp;"】"&amp; $I3 &amp;"',",  "")</f>
@@ -10453,7 +10478,7 @@
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -10468,10 +10493,10 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="L4" s="19" t="str">
         <f t="shared" si="0"/>
@@ -10480,7 +10505,7 @@
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
@@ -10495,7 +10520,7 @@
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="I5" s="6"/>
       <c r="L5" s="19" t="str">
@@ -11000,7 +11025,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>63</v>
@@ -11054,7 +11079,7 @@
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -11069,17 +11094,17 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="I3" s="6"/>
       <c r="L3" s="19" t="str">
         <f t="shared" ref="L3:L30" si="0">IF($A3&lt;&gt;"",  "  `"&amp; $A3 &amp;"` "&amp; $B3 &amp; IF($C3&lt;&gt;"", "("&amp; $C3 &amp; IF(AND($D3&lt;&gt;"",$D3&lt;&gt;0), ","&amp; $D3, "") &amp;")", "") &amp; IF($E3="●"," NOT NULL","") &amp; IF($F3&lt;&gt;""," DEFAULT '"&amp; $F3 &amp;"'","") &amp;" COMMENT '【"&amp; $H3 &amp;"】"&amp; $I3 &amp;"',",  "")</f>
-        <v xml:space="preserve">  `id` varchar(40) NOT NULL COMMENT '【社团id】',</v>
+        <v xml:space="preserve">  `cor_id` varchar(40) NOT NULL COMMENT '【社团id】',</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -11094,7 +11119,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="I4" s="6"/>
       <c r="L4" s="19" t="str">
@@ -11104,7 +11129,7 @@
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -11117,7 +11142,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="I5" s="6"/>
       <c r="L5" s="19" t="str">
@@ -11127,7 +11152,7 @@
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
@@ -11142,7 +11167,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="I6" s="6"/>
       <c r="L6" s="19" t="str">
@@ -11513,7 +11538,7 @@
     <row r="31" spans="1:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L31" s="20" t="str">
         <f>"  PRIMARY KEY (`"&amp; $A$3 &amp;"`)"</f>
-        <v xml:space="preserve">  PRIMARY KEY (`id`)</v>
+        <v xml:space="preserve">  PRIMARY KEY (`cor_id`)</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11612,7 +11637,7 @@
       <selection activeCell="D33" sqref="D33"/>
       <selection pane="topRight" activeCell="D33" sqref="D33"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11632,7 +11657,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>63</v>
@@ -11686,7 +11711,7 @@
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -11701,17 +11726,17 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="I3" s="6"/>
       <c r="L3" s="19" t="str">
         <f t="shared" ref="L3:L30" si="0">IF($A3&lt;&gt;"",  "  `"&amp; $A3 &amp;"` "&amp; $B3 &amp; IF($C3&lt;&gt;"", "("&amp; $C3 &amp; IF(AND($D3&lt;&gt;"",$D3&lt;&gt;0), ","&amp; $D3, "") &amp;")", "") &amp; IF($E3="●"," NOT NULL","") &amp; IF($F3&lt;&gt;""," DEFAULT '"&amp; $F3 &amp;"'","") &amp;" COMMENT '【"&amp; $H3 &amp;"】"&amp; $I3 &amp;"',",  "")</f>
-        <v xml:space="preserve">  `id` varchar(40) NOT NULL COMMENT '【社团id】',</v>
+        <v xml:space="preserve">  `cor_id` varchar(40) NOT NULL COMMENT '【社团id】',</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -11724,7 +11749,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="I4" s="6"/>
       <c r="L4" s="19" t="str">
@@ -11734,7 +11759,7 @@
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -11747,7 +11772,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="I5" s="6"/>
       <c r="L5" s="19" t="str">
@@ -11757,7 +11782,7 @@
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
@@ -11770,7 +11795,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="I6" s="6"/>
       <c r="L6" s="19" t="str">
@@ -11780,7 +11805,7 @@
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -11793,7 +11818,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="I7" s="6"/>
       <c r="L7" s="19" t="str">
@@ -11803,7 +11828,7 @@
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -11816,7 +11841,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="I8" s="6"/>
       <c r="L8" s="19" t="str">
@@ -12157,7 +12182,7 @@
     <row r="31" spans="1:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L31" s="20" t="str">
         <f>"  PRIMARY KEY (`"&amp; $A$3 &amp;"`)"</f>
-        <v xml:space="preserve">  PRIMARY KEY (`id`)</v>
+        <v xml:space="preserve">  PRIMARY KEY (`cor_id`)</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12256,7 +12281,7 @@
       <selection activeCell="D33" sqref="D33"/>
       <selection pane="topRight" activeCell="D33" sqref="D33"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12276,7 +12301,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>9</v>
@@ -12330,7 +12355,7 @@
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -12345,17 +12370,17 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="I3" s="6"/>
       <c r="L3" s="19" t="str">
         <f t="shared" ref="L3:L30" si="0">IF($A3&lt;&gt;"",  "  `"&amp; $A3 &amp;"` "&amp; $B3 &amp; IF($C3&lt;&gt;"", "("&amp; $C3 &amp; IF(AND($D3&lt;&gt;"",$D3&lt;&gt;0), ","&amp; $D3, "") &amp;")", "") &amp; IF($E3="●"," NOT NULL","") &amp; IF($F3&lt;&gt;""," DEFAULT '"&amp; $F3 &amp;"'","") &amp;" COMMENT '【"&amp; $H3 &amp;"】"&amp; $I3 &amp;"',",  "")</f>
-        <v xml:space="preserve">  `id` varchar(40) NOT NULL COMMENT '【活动id】',</v>
+        <v xml:space="preserve">  `act_id` varchar(40) NOT NULL COMMENT '【活动id】',</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -12370,7 +12395,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="I4" s="6"/>
       <c r="L4" s="19" t="str">
@@ -12380,7 +12405,7 @@
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -12395,7 +12420,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="I5" s="6"/>
       <c r="L5" s="19" t="str">
@@ -12405,7 +12430,7 @@
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>32</v>
@@ -12416,7 +12441,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="I6" s="6"/>
       <c r="L6" s="19" t="str">
@@ -12426,7 +12451,7 @@
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -12439,7 +12464,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="I7" s="6"/>
       <c r="L7" s="19" t="str">
@@ -12449,7 +12474,7 @@
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -12462,7 +12487,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="I8" s="6"/>
       <c r="L8" s="19" t="str">
@@ -12472,7 +12497,7 @@
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -12485,7 +12510,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="I9" s="6"/>
       <c r="L9" s="19" t="str">
@@ -12495,7 +12520,7 @@
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
@@ -12508,7 +12533,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="I10" s="6"/>
       <c r="L10" s="19" t="str">
@@ -12518,7 +12543,7 @@
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>25</v>
@@ -12531,7 +12556,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="I11" s="6"/>
       <c r="L11" s="19" t="str">
@@ -12541,7 +12566,7 @@
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>25</v>
@@ -12554,7 +12579,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="I12" s="6"/>
       <c r="L12" s="19" t="str">
@@ -12835,7 +12860,7 @@
     <row r="31" spans="1:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L31" s="20" t="str">
         <f>"  PRIMARY KEY (`"&amp; $A$3 &amp;"`)"</f>
-        <v xml:space="preserve">  PRIMARY KEY (`id`)</v>
+        <v xml:space="preserve">  PRIMARY KEY (`act_id`)</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12929,12 +12954,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D33" sqref="D33"/>
       <selection pane="topRight" activeCell="D33" sqref="D33"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12954,7 +12979,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>63</v>
@@ -12970,7 +12995,7 @@
       <c r="I1" s="3"/>
       <c r="L1" s="19" t="str">
         <f>"DROP TABLE IF EXISTS `"&amp; A1 &amp;"`;"</f>
-        <v>DROP TABLE IF EXISTS ` local`;</v>
+        <v>DROP TABLE IF EXISTS ` location`;</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -13003,15 +13028,15 @@
       </c>
       <c r="L2" s="19" t="str">
         <f>"CREATE TABLE `"&amp; A1 &amp;"` ("</f>
-        <v>CREATE TABLE ` local` (</v>
+        <v>CREATE TABLE ` location` (</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C3" s="6">
         <v>10</v>
@@ -13023,7 +13048,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="I3" s="6"/>
       <c r="L3" s="19" t="str">
@@ -13033,10 +13058,10 @@
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C4" s="26">
         <v>10</v>
@@ -13048,17 +13073,17 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="26" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I4" s="6"/>
       <c r="L4" s="19" t="str">
         <f>IF($A5&lt;&gt;"",  "  `"&amp; $A5 &amp;"` "&amp; $B5 &amp; IF($C5&lt;&gt;"", "("&amp; $C5 &amp; IF(AND($D4&lt;&gt;"",$D4&lt;&gt;0), ","&amp; $D4, "") &amp;")", "") &amp; IF($E4="●"," NOT NULL","") &amp; IF($F4&lt;&gt;""," DEFAULT '"&amp; $F4 &amp;"'","") &amp;" COMMENT '【"&amp; $H5 &amp;"】"&amp; $I4 &amp;"',",  "")</f>
-        <v xml:space="preserve">  `id` varchar(40) NOT NULL COMMENT '【用户id】',</v>
+        <v xml:space="preserve">  `act_id` varchar(40) NOT NULL COMMENT '【用户id】',</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -13073,7 +13098,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="I5" s="6"/>
       <c r="L5" s="19" t="e">
@@ -13578,7 +13603,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>63</v>
@@ -13632,7 +13657,7 @@
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -13647,7 +13672,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="I3" s="6"/>
       <c r="L3" s="19" t="str">
@@ -13657,7 +13682,7 @@
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -13672,7 +13697,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="I4" s="6"/>
       <c r="L4" s="19" t="str">
@@ -14172,7 +14197,7 @@
       <selection activeCell="D33" sqref="D33"/>
       <selection pane="topRight" activeCell="D33" sqref="D33"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14192,7 +14217,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>63</v>
@@ -14246,7 +14271,7 @@
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -14261,30 +14286,32 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="I3" s="6"/>
       <c r="L3" s="19" t="str">
-        <f t="shared" ref="L3:L4" si="0">IF($A3&lt;&gt;"",  "  `"&amp; $A3 &amp;"` "&amp; $B3 &amp; IF($C3&lt;&gt;"", "("&amp; $C3 &amp; IF(AND($D3&lt;&gt;"",$D3&lt;&gt;0), ","&amp; $D3, "") &amp;")", "") &amp; IF($E3="●"," NOT NULL","") &amp; IF($F3&lt;&gt;""," DEFAULT '"&amp; $F3 &amp;"'","") &amp;" COMMENT '【"&amp; $H3 &amp;"】"&amp; $I3 &amp;"',",  "")</f>
+        <f t="shared" ref="L3:L4" si="0">IF($A4&lt;&gt;"",  "  `"&amp; $A4 &amp;"` "&amp; $B4 &amp; IF($C4&lt;&gt;"", "("&amp; $C4 &amp; IF(AND($D4&lt;&gt;"",$D4&lt;&gt;0), ","&amp; $D4, "") &amp;")", "") &amp; IF($E4="●"," NOT NULL","") &amp; IF($F4&lt;&gt;""," DEFAULT '"&amp; $F4 &amp;"'","") &amp;" COMMENT '【"&amp; $H4 &amp;"】"&amp; $I4 &amp;"',",  "")</f>
         <v xml:space="preserve">  `user_id` varchar(40) NOT NULL COMMENT '【用户id】',</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="6">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="I4" s="6"/>
       <c r="L4" s="19" t="str">
@@ -14294,25 +14321,25 @@
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="9"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="L5" s="19" t="str">
-        <f t="shared" ref="L5:L30" si="1">IF($A5&lt;&gt;"",  "  `"&amp; $A5 &amp;"` "&amp; $B5 &amp; IF($C5&lt;&gt;"", "("&amp; $C5 &amp; IF(AND($D5&lt;&gt;"",$D5&lt;&gt;0), ","&amp; $D5, "") &amp;")", "") &amp; IF($E5="●"," NOT NULL","") &amp; IF($F5&lt;&gt;""," DEFAULT '"&amp; $F5 &amp;"'","") &amp;" COMMENT '【"&amp; $H5 &amp;"】"&amp; $I5 &amp;"',",  "")</f>
-        <v xml:space="preserve">  `act_id` varchar(40) COMMENT '【活动id】',</v>
+      <c r="L5" s="19" t="e">
+        <f>IF(#REF!&lt;&gt;"",  "  `" &amp;#REF! &amp;"` " &amp;#REF! &amp; IF(#REF!&lt;&gt;"", "(" &amp;#REF! &amp; IF(AND(#REF!&lt;&gt;"",#REF!&lt;&gt;0), "," &amp;#REF!, "") &amp;")", "") &amp; IF(#REF!="●"," NOT NULL","") &amp; IF(#REF!&lt;&gt;""," DEFAULT '" &amp;#REF! &amp;"'","") &amp;" COMMENT '【" &amp;#REF! &amp;"】" &amp;#REF! &amp;"',",  "")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -14326,7 +14353,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="L6" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L6:L29" si="1">IF($A7&lt;&gt;"",  "  `"&amp; $A7 &amp;"` "&amp; $B7 &amp; IF($C7&lt;&gt;"", "("&amp; $C7 &amp; IF(AND($D7&lt;&gt;"",$D7&lt;&gt;0), ","&amp; $D7, "") &amp;")", "") &amp; IF($E7="●"," NOT NULL","") &amp; IF($F7&lt;&gt;""," DEFAULT '"&amp; $F7 &amp;"'","") &amp;" COMMENT '【"&amp; $H7 &amp;"】"&amp; $I7 &amp;"',",  "")</f>
         <v/>
       </c>
     </row>
@@ -14675,7 +14702,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -14685,24 +14712,37 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="L30" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L31" s="20" t="str">
-        <f>"  PRIMARY KEY (`"&amp; $A$3 &amp;"`)"</f>
+      <c r="L30" s="20" t="str">
+        <f>"  PRIMARY KEY (`"&amp; $A$4 &amp;"`)"</f>
         <v xml:space="preserve">  PRIMARY KEY (`user_id`)</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L32" s="19" t="str">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="L31" s="19" t="str">
         <f>") ENGINE="&amp; $B$1 &amp;" AUTO_INCREMENT=1 DEFAULT CHARSET=utf8;"</f>
         <v>) ENGINE=MyISAM AUTO_INCREMENT=1 DEFAULT CHARSET=utf8;</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>18</v>
       </c>
@@ -14714,16 +14754,22 @@
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-    </row>
-    <row r="35" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K34" s="14"/>
+      <c r="L34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q34" s="15"/>
+    </row>
+    <row r="35" spans="1:17" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>14</v>
       </c>
@@ -14743,33 +14789,19 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K35" s="14"/>
-      <c r="L35" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q35" s="15"/>
     </row>
     <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>DB引擎</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E30">
       <formula1>"●"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B30">
       <formula1>字段类型</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
-      <formula1>DB引擎</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
@@ -14792,7 +14824,7 @@
       <selection activeCell="D33" sqref="D33"/>
       <selection pane="topRight" activeCell="D33" sqref="D33"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14812,7 +14844,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>63</v>
@@ -14866,7 +14898,7 @@
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -14881,17 +14913,17 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="I3" s="6"/>
       <c r="L3" s="19" t="str">
         <f t="shared" ref="L3:L4" si="0">IF($A3&lt;&gt;"",  "  `"&amp; $A3 &amp;"` "&amp; $B3 &amp; IF($C3&lt;&gt;"", "("&amp; $C3 &amp; IF(AND($D3&lt;&gt;"",$D3&lt;&gt;0), ","&amp; $D3, "") &amp;")", "") &amp; IF($E3="●"," NOT NULL","") &amp; IF($F3&lt;&gt;""," DEFAULT '"&amp; $F3 &amp;"'","") &amp;" COMMENT '【"&amp; $H3 &amp;"】"&amp; $I3 &amp;"',",  "")</f>
-        <v xml:space="preserve">  `id` varchar(40) NOT NULL COMMENT '【活动id】',</v>
+        <v xml:space="preserve">  `act_id` varchar(40) NOT NULL COMMENT '【活动id】',</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -14906,7 +14938,7 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="I4" s="6"/>
       <c r="L4" s="19" t="str">
@@ -15307,7 +15339,7 @@
     <row r="31" spans="1:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L31" s="20" t="str">
         <f>"  PRIMARY KEY (`"&amp; $A$3 &amp;"`)"</f>
-        <v xml:space="preserve">  PRIMARY KEY (`id`)</v>
+        <v xml:space="preserve">  PRIMARY KEY (`act_id`)</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -15406,7 +15438,7 @@
       <selection activeCell="D33" sqref="D33"/>
       <selection pane="topRight" activeCell="D33" sqref="D33"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15426,7 +15458,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>63</v>
@@ -15480,7 +15512,7 @@
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -15495,17 +15527,17 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="I3" s="6"/>
       <c r="L3" s="19" t="str">
         <f t="shared" ref="L3:L30" si="0">IF($A3&lt;&gt;"",  "  `"&amp; $A3 &amp;"` "&amp; $B3 &amp; IF($C3&lt;&gt;"", "("&amp; $C3 &amp; IF(AND($D3&lt;&gt;"",$D3&lt;&gt;0), ","&amp; $D3, "") &amp;")", "") &amp; IF($E3="●"," NOT NULL","") &amp; IF($F3&lt;&gt;""," DEFAULT '"&amp; $F3 &amp;"'","") &amp;" COMMENT '【"&amp; $H3 &amp;"】"&amp; $I3 &amp;"',",  "")</f>
-        <v xml:space="preserve">  `id` varchar(40) NOT NULL COMMENT '【活动id】',</v>
+        <v xml:space="preserve">  `act_id` varchar(40) NOT NULL COMMENT '【活动id】',</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -15520,17 +15552,17 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="I4" s="6"/>
       <c r="L4" s="19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  `userid` varchar(40) NOT NULL COMMENT '【用户id】',</v>
+        <v xml:space="preserve">  `user_id` varchar(40) NOT NULL COMMENT '【用户id】',</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -15543,7 +15575,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="I5" s="6"/>
       <c r="L5" s="19" t="str">
@@ -15929,7 +15961,7 @@
     <row r="31" spans="1:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L31" s="20" t="str">
         <f>"  PRIMARY KEY (`"&amp; $A$3 &amp;"`)"</f>
-        <v xml:space="preserve">  PRIMARY KEY (`id`)</v>
+        <v xml:space="preserve">  PRIMARY KEY (`act_id`)</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -16028,7 +16060,7 @@
       <selection activeCell="D33" sqref="D33"/>
       <selection pane="topRight" activeCell="D33" sqref="D33"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16048,7 +16080,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>63</v>
@@ -16102,7 +16134,7 @@
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -16117,17 +16149,17 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="I3" s="6"/>
       <c r="L3" s="19" t="str">
         <f t="shared" ref="L3:L30" si="0">IF($A3&lt;&gt;"",  "  `"&amp; $A3 &amp;"` "&amp; $B3 &amp; IF($C3&lt;&gt;"", "("&amp; $C3 &amp; IF(AND($D3&lt;&gt;"",$D3&lt;&gt;0), ","&amp; $D3, "") &amp;")", "") &amp; IF($E3="●"," NOT NULL","") &amp; IF($F3&lt;&gt;""," DEFAULT '"&amp; $F3 &amp;"'","") &amp;" COMMENT '【"&amp; $H3 &amp;"】"&amp; $I3 &amp;"',",  "")</f>
-        <v xml:space="preserve">  `id` varchar(40) NOT NULL COMMENT '【活动id】',</v>
+        <v xml:space="preserve">  `act_id` varchar(40) NOT NULL COMMENT '【活动id】',</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -16142,7 +16174,7 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="I4" s="6"/>
       <c r="L4" s="19" t="str">
@@ -16543,7 +16575,7 @@
     <row r="31" spans="1:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L31" s="20" t="str">
         <f>"  PRIMARY KEY (`"&amp; $A$3 &amp;"`)"</f>
-        <v xml:space="preserve">  PRIMARY KEY (`id`)</v>
+        <v xml:space="preserve">  PRIMARY KEY (`act_id`)</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -16637,10 +16669,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D33" sqref="D33"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16691,10 +16723,10 @@
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10" t="str">
@@ -16702,15 +16734,15 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10" t="str">
@@ -16718,15 +16750,15 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="10" t="str">
@@ -16734,15 +16766,15 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="10" t="str">
@@ -16750,15 +16782,15 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10" t="str">
@@ -16766,15 +16798,15 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10" t="str">
@@ -16782,15 +16814,15 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10" t="str">
@@ -16798,15 +16830,15 @@
         <v>&gt;&gt;&gt;</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="str">
@@ -16816,42 +16848,58 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" ca="1" si="0"/>
+        <v>&gt;&gt;&gt;</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="C13" s="9"/>
       <c r="D13" s="10" t="str">
-        <f t="shared" ref="D13:D22" si="1">IF(AND($A13&lt;&gt;""), HYPERLINK(文件名 &amp;"#'"&amp; $A13 &amp;"'!A1", $D$1), "")</f>
-        <v/>
+        <f t="shared" ref="D13:D22" ca="1" si="1">IF(AND($A13&lt;&gt;""), HYPERLINK(文件名 &amp;"#'"&amp; $A13 &amp;"'!A1", $D$1), "")</f>
+        <v>&gt;&gt;&gt;</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" ca="1" si="1"/>
+        <v>&gt;&gt;&gt;</v>
       </c>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" ca="1" si="1"/>
+        <v>&gt;&gt;&gt;</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
